--- a/02_datos_crudos/01_01_mortalidad/INEGI_exporta_defunciones_infantiles.xlsx
+++ b/02_datos_crudos/01_01_mortalidad/INEGI_exporta_defunciones_infantiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Documents/GitHub/mcv_ips_private/02_datos_crudos/01_01_mortalidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3B4C7B-2CD7-CC4C-9A60-834AD29DEE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64ECB05C-42C7-224C-924D-F58967573730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="740" windowWidth="28000" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hoja" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17024" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17653" uniqueCount="1573">
   <si>
     <t>Defunciones registradas (mortalidad general)</t>
   </si>
@@ -4688,6 +4688,54 @@
   </si>
   <si>
     <t>175</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>17,421</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>1,165</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>2,321</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>1,141</t>
+  </si>
+  <si>
+    <t>1,025</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>17,365</t>
+  </si>
+  <si>
+    <t>1,125</t>
+  </si>
+  <si>
+    <t>1,023</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
   <si>
     <t>Fuente: INEGI. Estadísticas de Defunciones Registradas (EDR).</t>
@@ -5068,9 +5116,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM469"/>
+  <dimension ref="A1:AM486"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -58176,122 +58226,347 @@
       <c r="AM464" s="1"/>
     </row>
     <row r="465" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B465" s="1"/>
-      <c r="C465" s="1"/>
-      <c r="D465" s="1"/>
-      <c r="E465" s="1"/>
-      <c r="F465" s="1"/>
-      <c r="G465" s="1"/>
-      <c r="H465" s="1"/>
-      <c r="I465" s="1"/>
-      <c r="J465" s="1"/>
-      <c r="K465" s="1"/>
-      <c r="L465" s="1"/>
-      <c r="M465" s="1"/>
-      <c r="N465" s="1"/>
-      <c r="O465" s="1"/>
-      <c r="P465" s="1"/>
-      <c r="Q465" s="1"/>
-      <c r="R465" s="1"/>
-      <c r="S465" s="1"/>
-      <c r="T465" s="1"/>
-      <c r="U465" s="1"/>
-      <c r="V465" s="1"/>
-      <c r="W465" s="1"/>
-      <c r="X465" s="1"/>
-      <c r="Y465" s="1"/>
-      <c r="Z465" s="1"/>
-      <c r="AA465" s="1"/>
-      <c r="AB465" s="1"/>
-      <c r="AC465" s="1"/>
-      <c r="AD465" s="1"/>
-      <c r="AE465" s="1"/>
-      <c r="AF465" s="1"/>
-      <c r="AG465" s="1"/>
-      <c r="AH465" s="1"/>
-      <c r="AI465" s="1"/>
-      <c r="AJ465" s="1"/>
-      <c r="AK465" s="1"/>
+      <c r="A465" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H465" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J465" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K465" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="L465" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="M465" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N465" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="O465" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="P465" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Q465" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="R465" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="S465" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="T465" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="U465" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="V465" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="W465" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="X465" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="Y465" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z465" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA465" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AB465" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC465" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AD465" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="AE465" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AF465" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AG465" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AH465" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AI465" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="AJ465" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK465" s="1" t="s">
+        <v>612</v>
+      </c>
       <c r="AL465" s="1"/>
       <c r="AM465" s="1"/>
     </row>
     <row r="466" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B466" s="1"/>
-      <c r="C466" s="1"/>
-      <c r="D466" s="1"/>
-      <c r="E466" s="1"/>
-      <c r="F466" s="1"/>
-      <c r="G466" s="1"/>
-      <c r="H466" s="1"/>
-      <c r="I466" s="1"/>
-      <c r="J466" s="1"/>
-      <c r="K466" s="1"/>
-      <c r="L466" s="1"/>
-      <c r="M466" s="1"/>
-      <c r="N466" s="1"/>
-      <c r="O466" s="1"/>
-      <c r="P466" s="1"/>
-      <c r="Q466" s="1"/>
-      <c r="R466" s="1"/>
-      <c r="S466" s="1"/>
-      <c r="T466" s="1"/>
-      <c r="U466" s="1"/>
-      <c r="V466" s="1"/>
-      <c r="W466" s="1"/>
-      <c r="X466" s="1"/>
-      <c r="Y466" s="1"/>
-      <c r="Z466" s="1"/>
-      <c r="AA466" s="1"/>
-      <c r="AB466" s="1"/>
-      <c r="AC466" s="1"/>
-      <c r="AD466" s="1"/>
-      <c r="AE466" s="1"/>
-      <c r="AF466" s="1"/>
-      <c r="AG466" s="1"/>
-      <c r="AH466" s="1"/>
-      <c r="AI466" s="1"/>
-      <c r="AJ466" s="1"/>
-      <c r="AK466" s="1"/>
+      <c r="A466" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K466" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ466" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK466" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AL466" s="1"/>
       <c r="AM466" s="1"/>
     </row>
     <row r="467" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B467" s="1"/>
-      <c r="C467" s="1"/>
-      <c r="D467" s="1"/>
-      <c r="E467" s="1"/>
-      <c r="F467" s="1"/>
-      <c r="G467" s="1"/>
-      <c r="H467" s="1"/>
-      <c r="I467" s="1"/>
-      <c r="J467" s="1"/>
-      <c r="K467" s="1"/>
-      <c r="L467" s="1"/>
-      <c r="M467" s="1"/>
-      <c r="N467" s="1"/>
-      <c r="O467" s="1"/>
-      <c r="P467" s="1"/>
-      <c r="Q467" s="1"/>
-      <c r="R467" s="1"/>
-      <c r="S467" s="1"/>
-      <c r="T467" s="1"/>
-      <c r="U467" s="1"/>
-      <c r="V467" s="1"/>
-      <c r="W467" s="1"/>
-      <c r="X467" s="1"/>
-      <c r="Y467" s="1"/>
-      <c r="Z467" s="1"/>
-      <c r="AA467" s="1"/>
-      <c r="AB467" s="1"/>
-      <c r="AC467" s="1"/>
-      <c r="AD467" s="1"/>
-      <c r="AE467" s="1"/>
-      <c r="AF467" s="1"/>
-      <c r="AG467" s="1"/>
-      <c r="AH467" s="1"/>
-      <c r="AI467" s="1"/>
-      <c r="AJ467" s="1"/>
-      <c r="AK467" s="1"/>
+      <c r="A467" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M467" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ467" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK467" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AL467" s="1"/>
       <c r="AM467" s="1"/>
     </row>
@@ -58299,91 +58574,1821 @@
       <c r="A468" t="s">
         <v>1556</v>
       </c>
-      <c r="B468" s="1"/>
-      <c r="C468" s="1"/>
-      <c r="D468" s="1"/>
-      <c r="E468" s="1"/>
-      <c r="F468" s="1"/>
-      <c r="G468" s="1"/>
-      <c r="H468" s="1"/>
-      <c r="I468" s="1"/>
-      <c r="J468" s="1"/>
-      <c r="K468" s="1"/>
-      <c r="L468" s="1"/>
-      <c r="M468" s="1"/>
-      <c r="N468" s="1"/>
-      <c r="O468" s="1"/>
-      <c r="P468" s="1"/>
-      <c r="Q468" s="1"/>
-      <c r="R468" s="1"/>
-      <c r="S468" s="1"/>
-      <c r="T468" s="1"/>
-      <c r="U468" s="1"/>
-      <c r="V468" s="1"/>
-      <c r="W468" s="1"/>
-      <c r="X468" s="1"/>
-      <c r="Y468" s="1"/>
-      <c r="Z468" s="1"/>
-      <c r="AA468" s="1"/>
-      <c r="AB468" s="1"/>
-      <c r="AC468" s="1"/>
-      <c r="AD468" s="1"/>
-      <c r="AE468" s="1"/>
-      <c r="AF468" s="1"/>
-      <c r="AG468" s="1"/>
-      <c r="AH468" s="1"/>
-      <c r="AI468" s="1"/>
-      <c r="AJ468" s="1"/>
-      <c r="AK468" s="1"/>
+      <c r="B468" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O468" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ468" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK468" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AL468" s="1"/>
-      <c r="AM468" s="2"/>
+      <c r="AM468" s="1"/>
     </row>
     <row r="469" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B469" s="1"/>
-      <c r="C469" s="1"/>
-      <c r="D469" s="1"/>
-      <c r="E469" s="1"/>
-      <c r="F469" s="1"/>
-      <c r="G469" s="1"/>
-      <c r="H469" s="1"/>
-      <c r="I469" s="1"/>
-      <c r="J469" s="1"/>
-      <c r="K469" s="1"/>
-      <c r="L469" s="1"/>
-      <c r="M469" s="1"/>
-      <c r="N469" s="1"/>
-      <c r="O469" s="1"/>
-      <c r="P469" s="1"/>
-      <c r="Q469" s="1"/>
-      <c r="R469" s="1"/>
-      <c r="S469" s="1"/>
-      <c r="T469" s="1"/>
-      <c r="U469" s="1"/>
-      <c r="V469" s="1"/>
-      <c r="W469" s="1"/>
-      <c r="X469" s="1"/>
-      <c r="Y469" s="1"/>
-      <c r="Z469" s="1"/>
-      <c r="AA469" s="1"/>
-      <c r="AB469" s="1"/>
-      <c r="AC469" s="1"/>
-      <c r="AD469" s="1"/>
-      <c r="AE469" s="1"/>
-      <c r="AF469" s="1"/>
-      <c r="AG469" s="1"/>
-      <c r="AH469" s="1"/>
-      <c r="AI469" s="1"/>
-      <c r="AJ469" s="1"/>
-      <c r="AK469" s="1"/>
+      <c r="A469" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U469" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ469" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK469" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AL469" s="1"/>
       <c r="AM469" s="1"/>
+    </row>
+    <row r="470" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U470" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK470" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="1"/>
+      <c r="AM470" s="1"/>
+    </row>
+    <row r="471" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ471" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK471" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL471" s="1"/>
+      <c r="AM471" s="1"/>
+    </row>
+    <row r="472" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK472" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="1"/>
+      <c r="AM472" s="1"/>
+    </row>
+    <row r="473" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK473" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="1"/>
+      <c r="AM473" s="1"/>
+    </row>
+    <row r="474" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ474" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK474" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL474" s="1"/>
+      <c r="AM474" s="1"/>
+    </row>
+    <row r="475" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S475" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK475" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="1"/>
+      <c r="AM475" s="1"/>
+    </row>
+    <row r="476" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB476" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK476" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="1"/>
+      <c r="AM476" s="1"/>
+    </row>
+    <row r="477" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K477" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M477" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ477" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK477" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL477" s="1"/>
+      <c r="AM477" s="1"/>
+    </row>
+    <row r="478" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI478" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ478" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK478" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL478" s="1"/>
+      <c r="AM478" s="1"/>
+    </row>
+    <row r="479" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K479" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O479" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q479" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S479" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U479" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V479" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W479" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD479" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE479" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG479" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI479" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ479" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK479" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL479" s="1"/>
+      <c r="AM479" s="1"/>
+    </row>
+    <row r="480" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H480" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J480" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K480" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="L480" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="M480" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="N480" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="O480" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="P480" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Q480" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="R480" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="S480" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="T480" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="U480" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="V480" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W480" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="X480" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="Y480" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z480" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA480" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AB480" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC480" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AD480" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AE480" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="AF480" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="AG480" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AH480" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AI480" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="AJ480" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK480" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AL480" s="1"/>
+      <c r="AM480" s="1"/>
+    </row>
+    <row r="481" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M481" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O481" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB481" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ481" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL481" s="1"/>
+      <c r="AM481" s="1"/>
+    </row>
+    <row r="482" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+      <c r="D482" s="1"/>
+      <c r="E482" s="1"/>
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+      <c r="H482" s="1"/>
+      <c r="I482" s="1"/>
+      <c r="J482" s="1"/>
+      <c r="K482" s="1"/>
+      <c r="L482" s="1"/>
+      <c r="M482" s="1"/>
+      <c r="N482" s="1"/>
+      <c r="O482" s="1"/>
+      <c r="P482" s="1"/>
+      <c r="Q482" s="1"/>
+      <c r="R482" s="1"/>
+      <c r="S482" s="1"/>
+      <c r="T482" s="1"/>
+      <c r="U482" s="1"/>
+      <c r="V482" s="1"/>
+      <c r="W482" s="1"/>
+      <c r="X482" s="1"/>
+      <c r="Y482" s="1"/>
+      <c r="Z482" s="1"/>
+      <c r="AA482" s="1"/>
+      <c r="AB482" s="1"/>
+      <c r="AC482" s="1"/>
+      <c r="AD482" s="1"/>
+      <c r="AE482" s="1"/>
+      <c r="AF482" s="1"/>
+      <c r="AG482" s="1"/>
+      <c r="AH482" s="1"/>
+      <c r="AI482" s="1"/>
+      <c r="AJ482" s="1"/>
+      <c r="AK482" s="1"/>
+      <c r="AL482" s="1"/>
+      <c r="AM482" s="1"/>
+    </row>
+    <row r="483" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
+      <c r="D483" s="1"/>
+      <c r="E483" s="1"/>
+      <c r="F483" s="1"/>
+      <c r="G483" s="1"/>
+      <c r="H483" s="1"/>
+      <c r="I483" s="1"/>
+      <c r="J483" s="1"/>
+      <c r="K483" s="1"/>
+      <c r="L483" s="1"/>
+      <c r="M483" s="1"/>
+      <c r="N483" s="1"/>
+      <c r="O483" s="1"/>
+      <c r="P483" s="1"/>
+      <c r="Q483" s="1"/>
+      <c r="R483" s="1"/>
+      <c r="S483" s="1"/>
+      <c r="T483" s="1"/>
+      <c r="U483" s="1"/>
+      <c r="V483" s="1"/>
+      <c r="W483" s="1"/>
+      <c r="X483" s="1"/>
+      <c r="Y483" s="1"/>
+      <c r="Z483" s="1"/>
+      <c r="AA483" s="1"/>
+      <c r="AB483" s="1"/>
+      <c r="AC483" s="1"/>
+      <c r="AD483" s="1"/>
+      <c r="AE483" s="1"/>
+      <c r="AF483" s="1"/>
+      <c r="AG483" s="1"/>
+      <c r="AH483" s="1"/>
+      <c r="AI483" s="1"/>
+      <c r="AJ483" s="1"/>
+      <c r="AK483" s="1"/>
+      <c r="AL483" s="1"/>
+      <c r="AM483" s="1"/>
+    </row>
+    <row r="484" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
+      <c r="D484" s="1"/>
+      <c r="E484" s="1"/>
+      <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+      <c r="H484" s="1"/>
+      <c r="I484" s="1"/>
+      <c r="J484" s="1"/>
+      <c r="K484" s="1"/>
+      <c r="L484" s="1"/>
+      <c r="M484" s="1"/>
+      <c r="N484" s="1"/>
+      <c r="O484" s="1"/>
+      <c r="P484" s="1"/>
+      <c r="Q484" s="1"/>
+      <c r="R484" s="1"/>
+      <c r="S484" s="1"/>
+      <c r="T484" s="1"/>
+      <c r="U484" s="1"/>
+      <c r="V484" s="1"/>
+      <c r="W484" s="1"/>
+      <c r="X484" s="1"/>
+      <c r="Y484" s="1"/>
+      <c r="Z484" s="1"/>
+      <c r="AA484" s="1"/>
+      <c r="AB484" s="1"/>
+      <c r="AC484" s="1"/>
+      <c r="AD484" s="1"/>
+      <c r="AE484" s="1"/>
+      <c r="AF484" s="1"/>
+      <c r="AG484" s="1"/>
+      <c r="AH484" s="1"/>
+      <c r="AI484" s="1"/>
+      <c r="AJ484" s="1"/>
+      <c r="AK484" s="1"/>
+      <c r="AL484" s="1"/>
+      <c r="AM484" s="1"/>
+    </row>
+    <row r="485" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+      <c r="D485" s="1"/>
+      <c r="E485" s="1"/>
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+      <c r="H485" s="1"/>
+      <c r="I485" s="1"/>
+      <c r="J485" s="1"/>
+      <c r="K485" s="1"/>
+      <c r="L485" s="1"/>
+      <c r="M485" s="1"/>
+      <c r="N485" s="1"/>
+      <c r="O485" s="1"/>
+      <c r="P485" s="1"/>
+      <c r="Q485" s="1"/>
+      <c r="R485" s="1"/>
+      <c r="S485" s="1"/>
+      <c r="T485" s="1"/>
+      <c r="U485" s="1"/>
+      <c r="V485" s="1"/>
+      <c r="W485" s="1"/>
+      <c r="X485" s="1"/>
+      <c r="Y485" s="1"/>
+      <c r="Z485" s="1"/>
+      <c r="AA485" s="1"/>
+      <c r="AB485" s="1"/>
+      <c r="AC485" s="1"/>
+      <c r="AD485" s="1"/>
+      <c r="AE485" s="1"/>
+      <c r="AF485" s="1"/>
+      <c r="AG485" s="1"/>
+      <c r="AH485" s="1"/>
+      <c r="AI485" s="1"/>
+      <c r="AJ485" s="1"/>
+      <c r="AK485" s="1"/>
+      <c r="AL485" s="1"/>
+      <c r="AM485" s="2"/>
+    </row>
+    <row r="486" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
+      <c r="D486" s="1"/>
+      <c r="E486" s="1"/>
+      <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+      <c r="H486" s="1"/>
+      <c r="I486" s="1"/>
+      <c r="J486" s="1"/>
+      <c r="K486" s="1"/>
+      <c r="L486" s="1"/>
+      <c r="M486" s="1"/>
+      <c r="N486" s="1"/>
+      <c r="O486" s="1"/>
+      <c r="P486" s="1"/>
+      <c r="Q486" s="1"/>
+      <c r="R486" s="1"/>
+      <c r="S486" s="1"/>
+      <c r="T486" s="1"/>
+      <c r="U486" s="1"/>
+      <c r="V486" s="1"/>
+      <c r="W486" s="1"/>
+      <c r="X486" s="1"/>
+      <c r="Y486" s="1"/>
+      <c r="Z486" s="1"/>
+      <c r="AA486" s="1"/>
+      <c r="AB486" s="1"/>
+      <c r="AC486" s="1"/>
+      <c r="AD486" s="1"/>
+      <c r="AE486" s="1"/>
+      <c r="AF486" s="1"/>
+      <c r="AG486" s="1"/>
+      <c r="AH486" s="1"/>
+      <c r="AI486" s="1"/>
+      <c r="AJ486" s="1"/>
+      <c r="AK486" s="1"/>
+      <c r="AL486" s="1"/>
+      <c r="AM486" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="AM1"/>
     <mergeCell ref="AM2"/>
     <mergeCell ref="AM3"/>
-    <mergeCell ref="AM468"/>
+    <mergeCell ref="AM485"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
